--- a/sds.xlsx
+++ b/sds.xlsx
@@ -391,22 +391,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3842021076654907</v>
+        <v>0.3842230581189756</v>
       </c>
       <c r="B2">
-        <v>0.8941576897346297</v>
+        <v>0.8943746679686202</v>
       </c>
       <c r="C2">
-        <v>2.062470550786999</v>
+        <v>2.062470136388925</v>
       </c>
       <c r="D2">
-        <v>1.115690156591291</v>
+        <v>1.115690156022455</v>
       </c>
       <c r="E2">
-        <v>1.108064294279543</v>
+        <v>1.108064293371027</v>
       </c>
       <c r="F2">
-        <v>0.6886198442136093</v>
+        <v>0.6917342939507688</v>
       </c>
     </row>
   </sheetData>
